--- a/biology/Biochimie/Voie_d'Entner-Doudoroff/Voie_d'Entner-Doudoroff.xlsx
+++ b/biology/Biochimie/Voie_d'Entner-Doudoroff/Voie_d'Entner-Doudoroff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Voie_d%27Entner-Doudoroff</t>
+          <t>Voie_d'Entner-Doudoroff</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La voie d'Entner-Doudoroff, ou voie du 2-céto-3-désoxy-6-phosphogluconate (KDPG), est, avec la glycolyse et la voie des pentoses phosphates, une des trois voies de dégradation du glucose en pyruvate.
 Cette voie serait spécifique aux bactéries.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Voie_d%27Entner-Doudoroff</t>
+          <t>Voie_d'Entner-Doudoroff</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,17 +526,162 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Phosphorylation du glucose
-Cette étape est commune à la glycolyse et à la voie des pentoses phosphates. Catalysée par une kinase (hexokinase ou glucokinase) :
-Oxydation du glucose-6-phosphate
-Cette réaction est catalysée par la glucose-6-phosphate déshydrogénase :
-Hydratation de la 6-phosphogluconolactone
-Cette réaction est catalysée par une lactonase :
-Déshydratation du 6-phosphogluconate
-Cette réaction est catalysée par une déshydrase :
-Synthèse du premier pyruvate
-Catalysée par la 2-déshydro-3-désoxy-phosphogluconate aldolase (ou 2-céto-3-désoxy-6-phosphogluconate aldolase) :
-Synthèse du second pyruvate</t>
+          <t>Phosphorylation du glucose</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette étape est commune à la glycolyse et à la voie des pentoses phosphates. Catalysée par une kinase (hexokinase ou glucokinase) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Voie_d'Entner-Doudoroff</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Voie_d%27Entner-Doudoroff</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Étapes de la voie d'Entner-Doudoroff</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Oxydation du glucose-6-phosphate</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette réaction est catalysée par la glucose-6-phosphate déshydrogénase :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Voie_d'Entner-Doudoroff</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Voie_d%27Entner-Doudoroff</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Étapes de la voie d'Entner-Doudoroff</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Hydratation de la 6-phosphogluconolactone</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette réaction est catalysée par une lactonase :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Voie_d'Entner-Doudoroff</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Voie_d%27Entner-Doudoroff</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Étapes de la voie d'Entner-Doudoroff</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Déshydratation du 6-phosphogluconate</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette réaction est catalysée par une déshydrase :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Voie_d'Entner-Doudoroff</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Voie_d%27Entner-Doudoroff</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Étapes de la voie d'Entner-Doudoroff</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synthèse du premier pyruvate</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catalysée par la 2-déshydro-3-désoxy-phosphogluconate aldolase (ou 2-céto-3-désoxy-6-phosphogluconate aldolase) :
+</t>
         </is>
       </c>
     </row>
